--- a/xlsx/拉脫維亞_intext.xlsx
+++ b/xlsx/拉脫維亞_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="721">
   <si>
     <t>拉脫維亞</t>
   </si>
@@ -29,7 +29,7 @@
     <t>拉脫維亞國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_拉脫維亞</t>
+    <t>体育运动_体育运动_欧洲议会_拉脫維亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A%E5%9B%BD%E5%BE%BD</t>
@@ -134,198 +134,210 @@
     <t>國家人口列表</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/2018%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2018年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口密度列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>官方語言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>拉脫維亞語</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
+  </si>
+  <si>
+    <t>官方文字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>拉脫維亞人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>俄罗斯人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>白俄罗斯人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>乌克兰人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>波蘭人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>立陶宛人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>犹太人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%A7%86%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>罗姆人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E6%B3%95</t>
+  </si>
+  <si>
+    <t>曆法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8E%86</t>
+  </si>
+  <si>
+    <t>公历</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
+  </si>
+  <si>
+    <t>主要節日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E6%97%A5</t>
+  </si>
+  <si>
+    <t>独立日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>俄羅斯帝國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
+  </si>
+  <si>
+    <t>蘇聯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
+  </si>
+  <si>
+    <t>政治體制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
+  </si>
+  <si>
+    <t>議會制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
+  </si>
+  <si>
+    <t>國家元首</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E7%B8%BD%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>拉脫維亞總統</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E4%BC%8A%E8%92%99%E8%8C%A8%C2%B7%E7%B6%AD%E5%B0%A4%E5%B0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>萊伊蒙茨·維尤尼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
+  </si>
+  <si>
+    <t>政府首腦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E7%B8%BD%E7%90%86</t>
+  </si>
+  <si>
+    <t>拉脫維亞總理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E6%96%AF%C2%B7%E5%8F%A4%E9%87%91%E6%96%AF%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>馬里斯·古金斯基</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
+  </si>
+  <si>
+    <t>國內生產總值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
+  </si>
+  <si>
+    <t>購買力平價</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2016年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>人類發展指數</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4</t>
   </si>
   <si>
     <t>2014年</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家人口密度列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>官方語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
-  </si>
-  <si>
-    <t>官方文字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>拉脫維亞人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>俄罗斯人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>白俄罗斯人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>乌克兰人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>波蘭人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>立陶宛人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>犹太人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%A7%86%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>罗姆人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E6%B3%95</t>
-  </si>
-  <si>
-    <t>曆法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8E%86</t>
-  </si>
-  <si>
-    <t>公历</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
-  </si>
-  <si>
-    <t>主要節日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E6%97%A5</t>
-  </si>
-  <si>
-    <t>独立日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>俄羅斯帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
-  </si>
-  <si>
-    <t>蘇聯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
-  </si>
-  <si>
-    <t>政治體制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
-  </si>
-  <si>
-    <t>議會制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
-  </si>
-  <si>
-    <t>國家元首</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E7%B8%BD%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>拉脫維亞總統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
-  </si>
-  <si>
-    <t>政府首腦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E7%B8%BD%E7%90%86</t>
-  </si>
-  <si>
-    <t>拉脫維亞總理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E6%96%AF%C2%B7%E5%8F%A4%E9%87%91%E6%96%AF%E5%9F%BA</t>
-  </si>
-  <si>
-    <t>馬里斯·古金斯基</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
-  </si>
-  <si>
-    <t>國內生產總值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
-  </si>
-  <si>
-    <t>購買力平價</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>人類發展指數</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
@@ -1064,10 +1076,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%8E%8B%E5%9B%BD</t>
@@ -1178,10 +1214,16 @@
     <t>东欧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
@@ -1196,10 +1238,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -1292,18 +1334,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -1328,10 +1370,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -1382,16 +1424,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -1400,10 +1448,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -2478,7 +2526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I362"/>
+  <dimension ref="A1:I370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3054,7 +3102,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -3083,7 +3131,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -3808,7 +3856,7 @@
         <v>86</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -3837,7 +3885,7 @@
         <v>88</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -3866,7 +3914,7 @@
         <v>90</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -3895,7 +3943,7 @@
         <v>92</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -3924,7 +3972,7 @@
         <v>94</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -3953,7 +4001,7 @@
         <v>96</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -3982,7 +4030,7 @@
         <v>98</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -4011,7 +4059,7 @@
         <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -4040,7 +4088,7 @@
         <v>102</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -4069,7 +4117,7 @@
         <v>104</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -4098,7 +4146,7 @@
         <v>106</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -4127,7 +4175,7 @@
         <v>108</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -4185,7 +4233,7 @@
         <v>112</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -4359,7 +4407,7 @@
         <v>124</v>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -4417,7 +4465,7 @@
         <v>128</v>
       </c>
       <c r="G67" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -4446,7 +4494,7 @@
         <v>130</v>
       </c>
       <c r="G68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -4475,7 +4523,7 @@
         <v>132</v>
       </c>
       <c r="G69" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -4504,7 +4552,7 @@
         <v>134</v>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -4533,7 +4581,7 @@
         <v>136</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -4562,7 +4610,7 @@
         <v>138</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -5229,7 +5277,7 @@
         <v>184</v>
       </c>
       <c r="G95" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -5258,7 +5306,7 @@
         <v>186</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -5287,7 +5335,7 @@
         <v>188</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -5316,7 +5364,7 @@
         <v>190</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -5403,7 +5451,7 @@
         <v>196</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -5461,7 +5509,7 @@
         <v>200</v>
       </c>
       <c r="G103" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -5490,7 +5538,7 @@
         <v>202</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -5519,7 +5567,7 @@
         <v>204</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -5548,7 +5596,7 @@
         <v>206</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -5577,7 +5625,7 @@
         <v>208</v>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -5635,7 +5683,7 @@
         <v>212</v>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -5751,7 +5799,7 @@
         <v>220</v>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -5780,7 +5828,7 @@
         <v>222</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -5809,7 +5857,7 @@
         <v>224</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -5896,7 +5944,7 @@
         <v>230</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -5925,7 +5973,7 @@
         <v>232</v>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -5948,13 +5996,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -5977,13 +6025,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -6006,13 +6054,13 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="F122" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -6035,10 +6083,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>92</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6064,13 +6112,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="G124" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -6099,7 +6147,7 @@
         <v>238</v>
       </c>
       <c r="G125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -6128,7 +6176,7 @@
         <v>240</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -6157,7 +6205,7 @@
         <v>242</v>
       </c>
       <c r="G127" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -6215,7 +6263,7 @@
         <v>246</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -6505,7 +6553,7 @@
         <v>266</v>
       </c>
       <c r="G139" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -6534,7 +6582,7 @@
         <v>268</v>
       </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -6563,7 +6611,7 @@
         <v>270</v>
       </c>
       <c r="G141" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -6592,7 +6640,7 @@
         <v>272</v>
       </c>
       <c r="G142" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -6621,7 +6669,7 @@
         <v>274</v>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -6650,7 +6698,7 @@
         <v>276</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -6679,7 +6727,7 @@
         <v>278</v>
       </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6737,7 +6785,7 @@
         <v>282</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -6795,7 +6843,7 @@
         <v>286</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -6853,7 +6901,7 @@
         <v>290</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -6882,7 +6930,7 @@
         <v>292</v>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6911,7 +6959,7 @@
         <v>294</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6940,7 +6988,7 @@
         <v>296</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -7462,7 +7510,7 @@
         <v>332</v>
       </c>
       <c r="G172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -7520,7 +7568,7 @@
         <v>336</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -7549,7 +7597,7 @@
         <v>338</v>
       </c>
       <c r="G175" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7578,7 +7626,7 @@
         <v>340</v>
       </c>
       <c r="G176" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -7607,7 +7655,7 @@
         <v>342</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -7636,7 +7684,7 @@
         <v>344</v>
       </c>
       <c r="G178" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -7694,7 +7742,7 @@
         <v>348</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -7723,7 +7771,7 @@
         <v>350</v>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -7781,7 +7829,7 @@
         <v>354</v>
       </c>
       <c r="G183" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7810,7 +7858,7 @@
         <v>356</v>
       </c>
       <c r="G184" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7868,7 +7916,7 @@
         <v>360</v>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7926,7 +7974,7 @@
         <v>364</v>
       </c>
       <c r="G188" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -7955,7 +8003,7 @@
         <v>366</v>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7984,7 +8032,7 @@
         <v>368</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -8013,7 +8061,7 @@
         <v>370</v>
       </c>
       <c r="G191" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -8042,7 +8090,7 @@
         <v>372</v>
       </c>
       <c r="G192" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -8071,7 +8119,7 @@
         <v>374</v>
       </c>
       <c r="G193" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -8100,7 +8148,7 @@
         <v>376</v>
       </c>
       <c r="G194" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -8129,7 +8177,7 @@
         <v>378</v>
       </c>
       <c r="G195" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8158,7 +8206,7 @@
         <v>380</v>
       </c>
       <c r="G196" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -8187,7 +8235,7 @@
         <v>382</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -8216,7 +8264,7 @@
         <v>384</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -8245,7 +8293,7 @@
         <v>386</v>
       </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -8274,7 +8322,7 @@
         <v>388</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -8303,7 +8351,7 @@
         <v>390</v>
       </c>
       <c r="G201" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -8332,7 +8380,7 @@
         <v>392</v>
       </c>
       <c r="G202" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -8361,7 +8409,7 @@
         <v>394</v>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -8390,7 +8438,7 @@
         <v>396</v>
       </c>
       <c r="G204" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -8419,7 +8467,7 @@
         <v>398</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -8448,7 +8496,7 @@
         <v>400</v>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -8506,7 +8554,7 @@
         <v>404</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -8535,7 +8583,7 @@
         <v>406</v>
       </c>
       <c r="G209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -8593,7 +8641,7 @@
         <v>410</v>
       </c>
       <c r="G211" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -8622,7 +8670,7 @@
         <v>412</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -8651,7 +8699,7 @@
         <v>414</v>
       </c>
       <c r="G213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8680,7 +8728,7 @@
         <v>416</v>
       </c>
       <c r="G214" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8738,7 +8786,7 @@
         <v>420</v>
       </c>
       <c r="G216" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -8767,7 +8815,7 @@
         <v>422</v>
       </c>
       <c r="G217" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -8796,7 +8844,7 @@
         <v>424</v>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -8825,7 +8873,7 @@
         <v>426</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -8854,7 +8902,7 @@
         <v>428</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -8883,7 +8931,7 @@
         <v>430</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -8912,7 +8960,7 @@
         <v>432</v>
       </c>
       <c r="G222" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -8941,7 +8989,7 @@
         <v>434</v>
       </c>
       <c r="G223" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -8970,7 +9018,7 @@
         <v>436</v>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -8999,7 +9047,7 @@
         <v>438</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -9115,7 +9163,7 @@
         <v>446</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -9144,7 +9192,7 @@
         <v>448</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -9173,7 +9221,7 @@
         <v>450</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -9260,7 +9308,7 @@
         <v>456</v>
       </c>
       <c r="G234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -9492,7 +9540,7 @@
         <v>472</v>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -9579,7 +9627,7 @@
         <v>478</v>
       </c>
       <c r="G245" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -9608,7 +9656,7 @@
         <v>480</v>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -9637,7 +9685,7 @@
         <v>482</v>
       </c>
       <c r="G247" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -9666,7 +9714,7 @@
         <v>484</v>
       </c>
       <c r="G248" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -9695,7 +9743,7 @@
         <v>486</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -9724,7 +9772,7 @@
         <v>488</v>
       </c>
       <c r="G250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -9753,7 +9801,7 @@
         <v>490</v>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -9776,13 +9824,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>347</v>
+        <v>491</v>
       </c>
       <c r="F252" t="s">
-        <v>348</v>
+        <v>492</v>
       </c>
       <c r="G252" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9805,13 +9853,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G253" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -9834,10 +9882,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9863,13 +9911,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F255" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G255" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9892,13 +9940,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F256" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9921,10 +9969,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -9950,13 +9998,13 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F258" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -9979,13 +10027,13 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F259" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -10008,13 +10056,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="F260" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="G260" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10037,13 +10085,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>401</v>
+        <v>507</v>
       </c>
       <c r="F261" t="s">
-        <v>402</v>
+        <v>508</v>
       </c>
       <c r="G261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -10066,13 +10114,13 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="G262" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -10095,10 +10143,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10124,10 +10172,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10153,13 +10201,13 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10182,13 +10230,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10211,10 +10259,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10240,13 +10288,13 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>418</v>
       </c>
       <c r="G268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10269,13 +10317,13 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>415</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>416</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -10304,7 +10352,7 @@
         <v>522</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -10333,7 +10381,7 @@
         <v>524</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -10420,7 +10468,7 @@
         <v>530</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -10478,7 +10526,7 @@
         <v>534</v>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -10536,7 +10584,7 @@
         <v>538</v>
       </c>
       <c r="G278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -10594,7 +10642,7 @@
         <v>542</v>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -10768,7 +10816,7 @@
         <v>554</v>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -10826,7 +10874,7 @@
         <v>558</v>
       </c>
       <c r="G288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -10884,7 +10932,7 @@
         <v>562</v>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -11116,7 +11164,7 @@
         <v>578</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11145,7 +11193,7 @@
         <v>580</v>
       </c>
       <c r="G299" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -11377,7 +11425,7 @@
         <v>596</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -11609,7 +11657,7 @@
         <v>612</v>
       </c>
       <c r="G315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -11748,10 +11796,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>413</v>
+        <v>621</v>
       </c>
       <c r="F320" t="s">
-        <v>414</v>
+        <v>622</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11777,10 +11825,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="F321" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11806,10 +11854,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F322" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11835,13 +11883,13 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F323" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -11864,10 +11912,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F324" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11893,10 +11941,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F325" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11922,10 +11970,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F326" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11951,10 +11999,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="F327" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11980,10 +12028,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>635</v>
+        <v>427</v>
       </c>
       <c r="F328" t="s">
-        <v>636</v>
+        <v>428</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12566,7 +12614,7 @@
         <v>676</v>
       </c>
       <c r="G348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -12798,7 +12846,7 @@
         <v>692</v>
       </c>
       <c r="G356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -12827,7 +12875,7 @@
         <v>694</v>
       </c>
       <c r="G357" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -12978,6 +13026,238 @@
         <v>4</v>
       </c>
       <c r="I362" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1</v>
+      </c>
+      <c r="D363" t="n">
+        <v>362</v>
+      </c>
+      <c r="E363" t="s">
+        <v>705</v>
+      </c>
+      <c r="F363" t="s">
+        <v>706</v>
+      </c>
+      <c r="G363" t="n">
+        <v>1</v>
+      </c>
+      <c r="H363" t="s">
+        <v>4</v>
+      </c>
+      <c r="I363" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="s">
+        <v>0</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1</v>
+      </c>
+      <c r="D364" t="n">
+        <v>363</v>
+      </c>
+      <c r="E364" t="s">
+        <v>707</v>
+      </c>
+      <c r="F364" t="s">
+        <v>708</v>
+      </c>
+      <c r="G364" t="n">
+        <v>1</v>
+      </c>
+      <c r="H364" t="s">
+        <v>4</v>
+      </c>
+      <c r="I364" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="s">
+        <v>0</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1</v>
+      </c>
+      <c r="D365" t="n">
+        <v>364</v>
+      </c>
+      <c r="E365" t="s">
+        <v>709</v>
+      </c>
+      <c r="F365" t="s">
+        <v>710</v>
+      </c>
+      <c r="G365" t="n">
+        <v>3</v>
+      </c>
+      <c r="H365" t="s">
+        <v>4</v>
+      </c>
+      <c r="I365" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="s">
+        <v>0</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1</v>
+      </c>
+      <c r="D366" t="n">
+        <v>365</v>
+      </c>
+      <c r="E366" t="s">
+        <v>711</v>
+      </c>
+      <c r="F366" t="s">
+        <v>712</v>
+      </c>
+      <c r="G366" t="n">
+        <v>1</v>
+      </c>
+      <c r="H366" t="s">
+        <v>4</v>
+      </c>
+      <c r="I366" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1</v>
+      </c>
+      <c r="D367" t="n">
+        <v>366</v>
+      </c>
+      <c r="E367" t="s">
+        <v>713</v>
+      </c>
+      <c r="F367" t="s">
+        <v>714</v>
+      </c>
+      <c r="G367" t="n">
+        <v>1</v>
+      </c>
+      <c r="H367" t="s">
+        <v>4</v>
+      </c>
+      <c r="I367" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1</v>
+      </c>
+      <c r="D368" t="n">
+        <v>367</v>
+      </c>
+      <c r="E368" t="s">
+        <v>715</v>
+      </c>
+      <c r="F368" t="s">
+        <v>716</v>
+      </c>
+      <c r="G368" t="n">
+        <v>1</v>
+      </c>
+      <c r="H368" t="s">
+        <v>4</v>
+      </c>
+      <c r="I368" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1</v>
+      </c>
+      <c r="D369" t="n">
+        <v>368</v>
+      </c>
+      <c r="E369" t="s">
+        <v>717</v>
+      </c>
+      <c r="F369" t="s">
+        <v>718</v>
+      </c>
+      <c r="G369" t="n">
+        <v>1</v>
+      </c>
+      <c r="H369" t="s">
+        <v>4</v>
+      </c>
+      <c r="I369" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="s">
+        <v>0</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1</v>
+      </c>
+      <c r="D370" t="n">
+        <v>369</v>
+      </c>
+      <c r="E370" t="s">
+        <v>719</v>
+      </c>
+      <c r="F370" t="s">
+        <v>720</v>
+      </c>
+      <c r="G370" t="n">
+        <v>1</v>
+      </c>
+      <c r="H370" t="s">
+        <v>4</v>
+      </c>
+      <c r="I370" t="n">
         <v>3</v>
       </c>
     </row>
